--- a/revenueclassification2.xlsx
+++ b/revenueclassification2.xlsx
@@ -459,7 +459,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>その他収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>その他収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>その他収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>その他収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>備品収入</t>
+          <t>医療関連</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>加工収入</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>資本利益</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>医療関連</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>子会社間取引</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>子会社間取引</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>子会社間取引</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>子会社間取引</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>子会社間取引</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>子会社間取引</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>加工収入</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>加工収入</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>未分類</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>売上収入</t>
+          <t>販売品</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>その他収入</t>
+          <t>その他</t>
         </is>
       </c>
     </row>
